--- a/Data/Processed/Angiosperms/missing_powo_ipni/Berberidaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Berberidaceae.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Herb. Boissier ser. 2, 5: 801. 1905 </t>
+          <t>Bull. Herb. Boissier ser. 2, 5: 801. 1905</t>
         </is>
       </c>
       <c r="J2" t="b">
